--- a/biology/Botanique/Paphinia_seegeri/Paphinia_seegeri.xlsx
+++ b/biology/Botanique/Paphinia_seegeri/Paphinia_seegeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia seegeri est une espèce de plantes à fleurs de la familles des orchidées et de la sous-tribu des Stanhopeinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom donné en hommage à Hans-Gerhardt Seeger, responsable des orchidées du Jardin botanique d’Heidelberg jusqu’en 2002.
 </t>
@@ -542,7 +556,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Differt ab omnibus speciebus adhuc notis emergentiis apicis labelli brevibus verrucosis et floribus paene clausis translucenter albis roseo-maculatis. Habitus aliis speciebus generis Paphinia similis. Inflorescentia pendens. Tepala inter se clinata, translucenter alba maculis striisque pallidi-roseis. Labellum rubinum, bipartitum ; hypochilium glabrum lobis falcatis sursumflexis apicibus acutis apichilium versus attentis ; callus cristatus, variabilis, hypochilio emergens supra epichilium porrigens ; epichilium superficie aspera, triangulum, dimidia parte anteriore emergentiis clavatis verrucosis albis usque ad 2 mm longis marginatum. Columna procera flexa alis rotundatis, rostellum tridentatum, pollinarium generis.
 Gerlach. Die Orchidee 40: 17 (1989).</t>
@@ -573,7 +589,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouest de la Colombie.
 </t>
